--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cxcl1-Cxcr1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H2">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I2">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J2">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N2">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O2">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P2">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q2">
-        <v>0.8575296948516665</v>
+        <v>16.78174653473083</v>
       </c>
       <c r="R2">
-        <v>5.145178169109999</v>
+        <v>100.690479208385</v>
       </c>
       <c r="S2">
-        <v>0.007657399969339942</v>
+        <v>0.001475793819478565</v>
       </c>
       <c r="T2">
-        <v>0.005313175208818386</v>
+        <v>0.001026181809035181</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H3">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I3">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J3">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N3">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O3">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P3">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q3">
-        <v>0.01098307308333333</v>
+        <v>528.0927345052369</v>
       </c>
       <c r="R3">
-        <v>0.06589843849999999</v>
+        <v>3168.556407031422</v>
       </c>
       <c r="S3">
-        <v>9.807448534609957E-05</v>
+        <v>0.04644069626969035</v>
       </c>
       <c r="T3">
-        <v>6.80501118192779E-05</v>
+        <v>0.03229217867826722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.651495</v>
+        <v>45.8803895</v>
       </c>
       <c r="H4">
-        <v>57.30298999999999</v>
+        <v>91.760779</v>
       </c>
       <c r="I4">
-        <v>0.03951472183891054</v>
+        <v>0.04823508666161738</v>
       </c>
       <c r="J4">
-        <v>0.02741774509604874</v>
+        <v>0.03353989414786691</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N4">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O4">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P4">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q4">
-        <v>3.55662468033</v>
+        <v>3.622868489551666</v>
       </c>
       <c r="R4">
-        <v>21.33974808198</v>
+        <v>21.73721093731</v>
       </c>
       <c r="S4">
-        <v>0.0317592473842245</v>
+        <v>0.0003185965724484557</v>
       </c>
       <c r="T4">
-        <v>0.02203651977541107</v>
+        <v>0.0002215336605645089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,40 +735,40 @@
         <v>1703.49524</v>
       </c>
       <c r="I5">
-        <v>0.7831254013389546</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J5">
-        <v>0.8150708761035396</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N5">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O5">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P5">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q5">
-        <v>16.99501490048444</v>
+        <v>207.6967643645111</v>
       </c>
       <c r="R5">
-        <v>152.95513410436</v>
+        <v>1869.2708792806</v>
       </c>
       <c r="S5">
-        <v>0.1517587406700969</v>
+        <v>0.01826494045423012</v>
       </c>
       <c r="T5">
-        <v>0.1579493265099801</v>
+        <v>0.01905057744841094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,40 +797,40 @@
         <v>1703.49524</v>
       </c>
       <c r="I6">
-        <v>0.7831254013389546</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J6">
-        <v>0.8150708761035396</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N6">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O6">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P6">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q6">
-        <v>0.2176688362222222</v>
+        <v>6535.860377473145</v>
       </c>
       <c r="R6">
-        <v>1.959019526</v>
+        <v>58822.74339725832</v>
       </c>
       <c r="S6">
-        <v>0.001943696352232584</v>
+        <v>0.5747662992101326</v>
       </c>
       <c r="T6">
-        <v>0.002022984168288734</v>
+        <v>0.5994889457908559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>1703.49524</v>
       </c>
       <c r="I7">
-        <v>0.7831254013389546</v>
+        <v>0.5969743022710003</v>
       </c>
       <c r="J7">
-        <v>0.8150708761035396</v>
+        <v>0.6226521903328125</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N7">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O7">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P7">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q7">
-        <v>70.48722604072</v>
+        <v>44.83788748928888</v>
       </c>
       <c r="R7">
-        <v>634.38503436648</v>
+        <v>403.5409874036</v>
       </c>
       <c r="S7">
-        <v>0.629422964316625</v>
+        <v>0.003943062606637631</v>
       </c>
       <c r="T7">
-        <v>0.6550985654252707</v>
+        <v>0.004112667093545672</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.62632533333333</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H8">
-        <v>121.878976</v>
+        <v>174.898274</v>
       </c>
       <c r="I8">
-        <v>0.05602981432151277</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J8">
-        <v>0.05831539849029591</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N8">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O8">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P8">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q8">
-        <v>1.215932375118222</v>
+        <v>21.32427772603444</v>
       </c>
       <c r="R8">
-        <v>10.943391376064</v>
+        <v>191.91849953431</v>
       </c>
       <c r="S8">
-        <v>0.01085779371589026</v>
+        <v>0.001875265915129662</v>
       </c>
       <c r="T8">
-        <v>0.01130070793442665</v>
+        <v>0.00195592745796601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,46 +977,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.62632533333333</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H9">
-        <v>121.878976</v>
+        <v>174.898274</v>
       </c>
       <c r="I9">
-        <v>0.05602981432151277</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J9">
-        <v>0.05831539849029591</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N9">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O9">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P9">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q9">
-        <v>0.01557342471111111</v>
+        <v>671.0383875948145</v>
       </c>
       <c r="R9">
-        <v>0.1401608224</v>
+        <v>6039.345488353331</v>
       </c>
       <c r="S9">
-        <v>0.0001390645042630367</v>
+        <v>0.05901139687670612</v>
       </c>
       <c r="T9">
-        <v>0.0001447372631902644</v>
+        <v>0.06154967706331851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.62632533333333</v>
+        <v>58.29942466666666</v>
       </c>
       <c r="H10">
-        <v>121.878976</v>
+        <v>174.898274</v>
       </c>
       <c r="I10">
-        <v>0.05602981432151277</v>
+        <v>0.06129149799652638</v>
       </c>
       <c r="J10">
-        <v>0.05831539849029591</v>
+        <v>0.0639278530602342</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N10">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O10">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P10">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q10">
-        <v>5.043108268928</v>
+        <v>4.603516903095555</v>
       </c>
       <c r="R10">
-        <v>45.387974420352</v>
+        <v>41.43165212786</v>
       </c>
       <c r="S10">
-        <v>0.04503295610135947</v>
+        <v>0.0004048352046905998</v>
       </c>
       <c r="T10">
-        <v>0.046869953292679</v>
+        <v>0.00042224853894968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>56.6042365</v>
+        <v>71.7986375</v>
       </c>
       <c r="H11">
-        <v>113.208473</v>
+        <v>143.597275</v>
       </c>
       <c r="I11">
-        <v>0.07806575748321012</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J11">
-        <v>0.05416682542092334</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N11">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O11">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P11">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q11">
-        <v>1.694145930366167</v>
+        <v>26.26190730277083</v>
       </c>
       <c r="R11">
-        <v>10.164875582197</v>
+        <v>157.571443816625</v>
       </c>
       <c r="S11">
-        <v>0.01512805104374522</v>
+        <v>0.00230948312828691</v>
       </c>
       <c r="T11">
-        <v>0.01049677254488441</v>
+        <v>0.00160588121676716</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>56.6042365</v>
+        <v>71.7986375</v>
       </c>
       <c r="H12">
-        <v>113.208473</v>
+        <v>143.597275</v>
       </c>
       <c r="I12">
-        <v>0.07806575748321012</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J12">
-        <v>0.05416682542092334</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N12">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O12">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P12">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q12">
-        <v>0.02169829065833333</v>
+        <v>826.4171081443249</v>
       </c>
       <c r="R12">
-        <v>0.13018974395</v>
+        <v>4958.50264886595</v>
       </c>
       <c r="S12">
-        <v>0.0001937571272684516</v>
+        <v>0.07267546664387189</v>
       </c>
       <c r="T12">
-        <v>0.0001344406155165674</v>
+        <v>0.05053432318847549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>56.6042365</v>
+        <v>71.7986375</v>
       </c>
       <c r="H13">
-        <v>113.208473</v>
+        <v>143.597275</v>
       </c>
       <c r="I13">
-        <v>0.07806575748321012</v>
+        <v>0.07548352443691768</v>
       </c>
       <c r="J13">
-        <v>0.05416682542092334</v>
+        <v>0.05248688443918001</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N13">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O13">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P13">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q13">
-        <v>7.026510293691</v>
+        <v>5.669459745791666</v>
       </c>
       <c r="R13">
-        <v>42.159061762146</v>
+        <v>34.01675847475</v>
       </c>
       <c r="S13">
-        <v>0.06274394931219646</v>
+        <v>0.0004985746647588761</v>
       </c>
       <c r="T13">
-        <v>0.04353561226052237</v>
+        <v>0.0003466800339373584</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.228297</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H14">
-        <v>54.68489099999999</v>
+        <v>443.365777</v>
       </c>
       <c r="I14">
-        <v>0.02513956376629029</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J14">
-        <v>0.0261650640227187</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N14">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O14">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P14">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q14">
-        <v>0.5455668531109998</v>
+        <v>54.05687973208389</v>
       </c>
       <c r="R14">
-        <v>4.910101677998999</v>
+        <v>486.511917588755</v>
       </c>
       <c r="S14">
-        <v>0.004871695556860798</v>
+        <v>0.004753784645942697</v>
       </c>
       <c r="T14">
-        <v>0.005070423151708762</v>
+        <v>0.004958261035536204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.228297</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H15">
-        <v>54.68489099999999</v>
+        <v>443.365777</v>
       </c>
       <c r="I15">
-        <v>0.02513956376629029</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J15">
-        <v>0.0261650640227187</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N15">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O15">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P15">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q15">
-        <v>0.006987513849999999</v>
+        <v>1701.077142206687</v>
       </c>
       <c r="R15">
-        <v>0.06288762464999999</v>
+        <v>15309.69427986018</v>
       </c>
       <c r="S15">
-        <v>6.239572654100077E-05</v>
+        <v>0.1495934364000424</v>
       </c>
       <c r="T15">
-        <v>6.494099081697176E-05</v>
+        <v>0.1560279571156733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.228297</v>
+        <v>147.7885923333333</v>
       </c>
       <c r="H16">
-        <v>54.68489099999999</v>
+        <v>443.365777</v>
       </c>
       <c r="I16">
-        <v>0.02513956376629029</v>
+        <v>0.1553734751706233</v>
       </c>
       <c r="J16">
-        <v>0.0261650640227187</v>
+        <v>0.1620566149440249</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N16">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O16">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P16">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q16">
-        <v>2.262751419798</v>
+        <v>11.66987987928111</v>
       </c>
       <c r="R16">
-        <v>20.364762778182</v>
+        <v>105.02891891353</v>
       </c>
       <c r="S16">
-        <v>0.0202054724828885</v>
+        <v>0.001026254124638199</v>
       </c>
       <c r="T16">
-        <v>0.02102969988019297</v>
+        <v>0.001070396792815346</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.141961</v>
+        <v>59.584107</v>
       </c>
       <c r="H17">
-        <v>39.425883</v>
+        <v>178.752321</v>
       </c>
       <c r="I17">
-        <v>0.01812474125112182</v>
+        <v>0.06264211346331491</v>
       </c>
       <c r="J17">
-        <v>0.01886409086647383</v>
+        <v>0.06533656307588157</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02992966666666666</v>
+        <v>0.3657716666666667</v>
       </c>
       <c r="N17">
-        <v>0.08978899999999999</v>
+        <v>1.097315</v>
       </c>
       <c r="O17">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="P17">
-        <v>0.1937860021021235</v>
+        <v>0.03059585711603819</v>
       </c>
       <c r="Q17">
-        <v>0.3933345120763333</v>
+        <v>21.794178124235</v>
       </c>
       <c r="R17">
-        <v>3.540010608687</v>
+        <v>196.147603118115</v>
       </c>
       <c r="S17">
-        <v>0.003512321146190338</v>
+        <v>0.001916589152970235</v>
       </c>
       <c r="T17">
-        <v>0.003655596752305146</v>
+        <v>0.001999028148322689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.141961</v>
+        <v>59.584107</v>
       </c>
       <c r="H18">
-        <v>39.425883</v>
+        <v>178.752321</v>
       </c>
       <c r="I18">
-        <v>0.01812474125112182</v>
+        <v>0.06264211346331491</v>
       </c>
       <c r="J18">
-        <v>0.01886409086647383</v>
+        <v>0.06533656307588157</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0003833333333333333</v>
+        <v>11.510206</v>
       </c>
       <c r="N18">
-        <v>0.00115</v>
+        <v>34.530618</v>
       </c>
       <c r="O18">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="P18">
-        <v>0.00248197331986593</v>
+        <v>0.9627990635838353</v>
       </c>
       <c r="Q18">
-        <v>0.005037751716666667</v>
+        <v>685.8253458960419</v>
       </c>
       <c r="R18">
-        <v>0.04533976545</v>
+        <v>6172.428113064378</v>
       </c>
       <c r="S18">
-        <v>4.498512421475781E-05</v>
+        <v>0.06031176818339196</v>
       </c>
       <c r="T18">
-        <v>4.682017023411463E-05</v>
+        <v>0.06290598174724496</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.141961</v>
+        <v>59.584107</v>
       </c>
       <c r="H19">
-        <v>39.425883</v>
+        <v>178.752321</v>
       </c>
       <c r="I19">
-        <v>0.01812474125112182</v>
+        <v>0.06264211346331491</v>
       </c>
       <c r="J19">
-        <v>0.01886409086647383</v>
+        <v>0.06533656307588157</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.124134</v>
+        <v>0.07896333333333333</v>
       </c>
       <c r="N19">
-        <v>0.372402</v>
+        <v>0.23689</v>
       </c>
       <c r="O19">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="P19">
-        <v>0.8037320245780106</v>
+        <v>0.006605079300126477</v>
       </c>
       <c r="Q19">
-        <v>1.631364186774</v>
+        <v>4.704959702409999</v>
       </c>
       <c r="R19">
-        <v>14.682277680966</v>
+        <v>42.34463732168999</v>
       </c>
       <c r="S19">
-        <v>0.01456743498071673</v>
+        <v>0.0004137561269527155</v>
       </c>
       <c r="T19">
-        <v>0.01516167394393457</v>
+        <v>0.0004315531803139133</v>
       </c>
     </row>
   </sheetData>
